--- a/data/excel/PreApprovalFlight.xlsx
+++ b/data/excel/PreApprovalFlight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569120A-55A5-408F-A5E9-33C1256289F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E7C3E-3F7D-4D37-B3E8-3585EEF86A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
   </bookViews>
   <sheets>
     <sheet name="PreApprovalQueue" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Source</t>
   </si>
@@ -239,13 +239,61 @@
   </si>
   <si>
     <t>RefNo</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Shubham Natkar</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>TravelerType</t>
+  </si>
+  <si>
+    <t>CreatorName</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>QLABS12345</t>
+  </si>
+  <si>
+    <t>Test on Hotel 1</t>
+  </si>
+  <si>
+    <t>Gunjan Swain</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>preprod117</t>
+  </si>
+  <si>
+    <t>//preprod.quadlabs.net/sbt/#</t>
+  </si>
+  <si>
+    <t>rsudesh15</t>
+  </si>
+  <si>
+    <t>Laxmi@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +315,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +343,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -326,6 +397,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66FDB5-D227-49D9-A0DE-033D9E8EB139}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +785,7 @@
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1192,128 +1267,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FAF82A-9382-4CAC-A3C7-39C1DBDB2FE2}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="O1" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>722358</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2">
+        <v>345965</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>722359</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{E1D82EE1-2597-486A-B54A-E69370DF2C23}">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{E1D82EE1-2597-486A-B54A-E69370DF2C23}">
       <formula1>"Individual, Dependent,Guest"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{39B5C414-3DB3-440F-86B8-1029D43FCC67}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E72C0018-7515-4554-9CF7-DB4E9D3258D9}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4F810971-DD40-499F-A9AA-61FFF9F40599}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{39252FDD-0557-425E-BDE3-D382E972E777}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 O2" xr:uid="{9FFCBD59-CD89-458A-84CD-2F841232CD06}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{075B3579-BC51-46FF-8AE0-5EC5D78AA69E}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{B632CAB3-44FB-443E-A18F-0A7203E2B2D7}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{37017DB8-7A70-49C8-8E61-B0735686B92E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>